--- a/data/trans_orig/P34B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B01-Estudios-trans_orig.xlsx
@@ -642,7 +642,7 @@
         <v>3.260037723223092</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.37713643572161</v>
+        <v>3.377136435721611</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.817361999097965</v>
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.281787855832733</v>
+        <v>3.299583021064042</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.041619761303763</v>
+        <v>3.042453826252194</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.130192355645883</v>
+        <v>3.132584668169229</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.649826272429251</v>
+        <v>2.657786255369572</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.568922883135889</v>
+        <v>2.570589999742228</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.441570736151673</v>
+        <v>2.449539459711625</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.968324516465276</v>
+        <v>2.98214011692393</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.838583036673047</v>
+        <v>2.83234268847958</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.783080918467591</v>
+        <v>2.779814444677045</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.683837946043567</v>
+        <v>3.677989000169263</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.477318801544798</v>
+        <v>3.481239380967154</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.601414980157763</v>
+        <v>3.611449999097473</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.975353129904645</v>
+        <v>2.973583641132874</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.969413279347909</v>
+        <v>2.958497793803001</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.753444830576058</v>
+        <v>2.775296924356045</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.218911580046531</v>
+        <v>3.22071512488464</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.117583972788112</v>
+        <v>3.12335700475862</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.053489956517037</v>
+        <v>3.050181429643867</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>3.284145278798656</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3.928290671003655</v>
+        <v>3.928290671003656</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>2.873882613337144</v>
@@ -760,7 +760,7 @@
         <v>3.218953621599077</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>3.867341949688089</v>
+        <v>3.86734194968809</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>2.591306614625538</v>
@@ -769,7 +769,7 @@
         <v>3.252255827274507</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>3.89820493705876</v>
+        <v>3.898204937058759</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.207106375073119</v>
+        <v>2.213742788466126</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.170314732383117</v>
+        <v>3.141151607775145</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.784113009038801</v>
+        <v>3.79336195367022</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.748246629459095</v>
+        <v>2.732272505218528</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.088924696545981</v>
+        <v>3.087856306293792</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.757181862199013</v>
+        <v>3.752225952417501</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.502936481832244</v>
+        <v>2.499326969438075</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>3.160396889049546</v>
+        <v>3.155212647818011</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3.807372237400773</v>
+        <v>3.810328804592109</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.466665835021816</v>
+        <v>2.468831199081223</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.41928576847234</v>
+        <v>3.429973880691519</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.07132407520404</v>
+        <v>4.068274455379141</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.01556135445961</v>
+        <v>3.007937143534854</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.350383871555876</v>
+        <v>3.345991398748048</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.971359758268225</v>
+        <v>3.975527010525274</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.688587379217628</v>
+        <v>2.67903685066497</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.343521416430015</v>
+        <v>3.34152660788108</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.991247964504395</v>
+        <v>3.996629632332704</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>3.421509553157847</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.172728881405015</v>
+        <v>4.172728881405014</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3.007048404654202</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.884250338379301</v>
+        <v>1.884331406058145</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.15700601642796</v>
+        <v>3.163741668036796</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.954971966474233</v>
+        <v>3.954571602973009</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.756802829103981</v>
+        <v>2.72316333872235</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.347106089865341</v>
+        <v>3.315322464449054</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.586107913872202</v>
+        <v>3.575720237019423</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.376223031168919</v>
+        <v>2.370333786974471</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.330597520897042</v>
+        <v>3.327833846329252</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.823997179754674</v>
+        <v>3.814778125313505</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.432429565743107</v>
+        <v>2.40212038800796</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.678959126696717</v>
+        <v>3.685496963294815</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.382919213846361</v>
+        <v>4.404551016680216</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.261581139123139</v>
+        <v>3.277906234294543</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.818193355707071</v>
+        <v>3.79355428974005</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.934335349993654</v>
+        <v>3.93099726523195</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.74018392498292</v>
+        <v>2.75027797474719</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.679822466568569</v>
+        <v>3.678401827330219</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.099553695144559</v>
+        <v>4.104051009268109</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.534397959538884</v>
+        <v>2.533010219434563</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.199001383209982</v>
+        <v>3.194432078986363</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.781198432272568</v>
+        <v>3.774577254627577</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.771977421839454</v>
+        <v>2.772013348910201</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.05146367783926</v>
+        <v>3.054331979148913</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.481018076420347</v>
+        <v>3.480509036857147</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.686145191025051</v>
+        <v>2.681390857540923</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>3.150146043842892</v>
+        <v>3.1512850702758</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.651482175479051</v>
+        <v>3.651453728426991</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.734041444719734</v>
+        <v>2.737392503583196</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.414555577884426</v>
+        <v>3.407225634028579</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.997900259538634</v>
+        <v>3.98499019580255</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.97582294440078</v>
+        <v>2.971263916329087</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.253845962021831</v>
+        <v>3.245604411952621</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.646805878002052</v>
+        <v>3.64834919685089</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.825737852304512</v>
+        <v>2.831961474842361</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.295224865746847</v>
+        <v>3.295602012687841</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.786000539492366</v>
+        <v>3.786526750062302</v>
       </c>
     </row>
     <row r="16">
